--- a/biology/Histoire de la zoologie et de la botanique/Le_Houér/Le_Houér..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Le_Houér/Le_Houér..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Hou%C3%A9r.</t>
+          <t>Le_Houér.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Noël Le Houérou, né le 25 décembre 1928 à Plougonver et mort le 20 décembre 2009 à Montpellier[1], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Noël Le Houérou, né le 25 décembre 1928 à Plougonver et mort le 20 décembre 2009 à Montpellier, est un botaniste français.
 Il est l'auteur d'au moins une dizaine de descriptions de plantes.
-En 1991, il est nommé chevalier de l'ordre du Mérite agricole[2].
+En 1991, il est nommé chevalier de l'ordre du Mérite agricole.
 Henri-Noël Le Houérou utilisait généralement son nom pour ses publications en français. Il signait celles en anglais sous le nom de Henry-Noël Le Houérou.
 </t>
         </is>
